--- a/SeleniumFrameworkPrj/src/test/resources/testData/SignUpData.xlsx
+++ b/SeleniumFrameworkPrj/src/test/resources/testData/SignUpData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Growskills\Automation testing\AutomationExercise\SeleniumFrameworkPrj\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73F0D91C-00EF-46D6-B8B7-02494957206B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5858E144-300D-4F31-A446-9143D20C9ED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
   <si>
     <t>username</t>
   </si>
@@ -82,72 +82,48 @@
     <t>pass@456</t>
   </si>
   <si>
-    <t>pass@789</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
     <t>10</t>
   </si>
   <si>
-    <t>15</t>
-  </si>
-  <si>
     <t>July</t>
   </si>
   <si>
     <t>May</t>
   </si>
   <si>
-    <t>December</t>
-  </si>
-  <si>
     <t>2003</t>
   </si>
   <si>
     <t>1999</t>
   </si>
   <si>
-    <t>2001</t>
-  </si>
-  <si>
     <t>John</t>
   </si>
   <si>
     <t>Alice</t>
   </si>
   <si>
-    <t>Bob</t>
-  </si>
-  <si>
     <t>Doe</t>
   </si>
   <si>
     <t>Smith</t>
   </si>
   <si>
-    <t>Johnson</t>
-  </si>
-  <si>
     <t>TestCompany</t>
   </si>
   <si>
     <t>CompanyX</t>
   </si>
   <si>
-    <t>TechCorp</t>
-  </si>
-  <si>
     <t>Addr1Line1</t>
   </si>
   <si>
     <t>Addr1Line2</t>
   </si>
   <si>
-    <t>Addr1Line3</t>
-  </si>
-  <si>
     <t>India</t>
   </si>
   <si>
@@ -157,52 +133,34 @@
     <t>Delhi</t>
   </si>
   <si>
-    <t>Karnataka</t>
-  </si>
-  <si>
     <t>Kochi</t>
   </si>
   <si>
     <t>New Delhi</t>
   </si>
   <si>
-    <t>Bangalore</t>
-  </si>
-  <si>
     <t>682001</t>
   </si>
   <si>
     <t>110001</t>
   </si>
   <si>
-    <t>560001</t>
-  </si>
-  <si>
     <t>9999911111</t>
   </si>
   <si>
     <t>8888822222</t>
   </si>
   <si>
-    <t>7777733333</t>
-  </si>
-  <si>
-    <t>users001</t>
-  </si>
-  <si>
-    <t>users002</t>
-  </si>
-  <si>
-    <t>users003</t>
-  </si>
-  <si>
-    <t>users001@gmail.com</t>
-  </si>
-  <si>
-    <t>users002@gmail.com</t>
-  </si>
-  <si>
-    <t>users003@gmail.com</t>
+    <t>users011</t>
+  </si>
+  <si>
+    <t>users012</t>
+  </si>
+  <si>
+    <t>users011@gmail.com</t>
+  </si>
+  <si>
+    <t>users012@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -584,7 +542,7 @@
   <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -659,10 +617,10 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="C2" t="s">
         <v>16</v>
@@ -671,48 +629,48 @@
         <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" t="s">
         <v>24</v>
       </c>
-      <c r="G2" t="s">
-        <v>27</v>
-      </c>
       <c r="H2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" t="s">
         <v>30</v>
       </c>
-      <c r="I2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J2" t="s">
-        <v>36</v>
-      </c>
       <c r="K2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O2" t="s">
         <v>39</v>
       </c>
-      <c r="L2" t="s">
-        <v>42</v>
-      </c>
-      <c r="M2" t="s">
-        <v>43</v>
-      </c>
-      <c r="N2" t="s">
-        <v>46</v>
-      </c>
-      <c r="O2" t="s">
-        <v>49</v>
-      </c>
       <c r="P2" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="C3" t="s">
         <v>17</v>
@@ -721,97 +679,49 @@
         <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" t="s">
         <v>25</v>
       </c>
-      <c r="G3" t="s">
-        <v>28</v>
-      </c>
       <c r="H3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" t="s">
         <v>31</v>
       </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" t="s">
         <v>34</v>
       </c>
-      <c r="J3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K3" t="s">
+      <c r="M3" t="s">
+        <v>36</v>
+      </c>
+      <c r="N3" t="s">
+        <v>38</v>
+      </c>
+      <c r="O3" t="s">
         <v>40</v>
       </c>
-      <c r="L3" t="s">
+      <c r="P3" t="s">
         <v>42</v>
-      </c>
-      <c r="M3" t="s">
-        <v>44</v>
-      </c>
-      <c r="N3" t="s">
-        <v>47</v>
-      </c>
-      <c r="O3" t="s">
-        <v>50</v>
-      </c>
-      <c r="P3" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I4" t="s">
-        <v>35</v>
-      </c>
-      <c r="J4" t="s">
-        <v>38</v>
-      </c>
-      <c r="K4" t="s">
-        <v>41</v>
-      </c>
-      <c r="L4" t="s">
-        <v>42</v>
-      </c>
-      <c r="M4" t="s">
-        <v>45</v>
-      </c>
-      <c r="N4" t="s">
-        <v>48</v>
-      </c>
-      <c r="O4" t="s">
-        <v>51</v>
-      </c>
-      <c r="P4" t="s">
-        <v>54</v>
-      </c>
+      <c r="B4" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{C36A523D-01B9-46BC-B4BC-315BE0137AF7}"/>
     <hyperlink ref="B3" r:id="rId2" xr:uid="{299FDAF5-93EF-4E4D-8950-60DEDE574548}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{4A2B7B41-300A-424D-ACAB-EDA6DBA936B8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
